--- a/Musa Thesis/Final_Work_MiaoEdits.xlsx
+++ b/Musa Thesis/Final_Work_MiaoEdits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/AU/Collaboration/Musa, N/Post Graduation/Musa's Work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Choice-paper/Musa Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FB094A20-E499-4E2F-823F-EA2D45C6B195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B75D7A1-24FB-4DEF-B73A-3E80358C91C4}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{FB094A20-E499-4E2F-823F-EA2D45C6B195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60CF1123-50D8-4734-B9A5-36DDA1176D3A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="2" xr2:uid="{08441732-9229-4CE3-BAC0-1AAC5E4C5AC7}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{08441732-9229-4CE3-BAC0-1AAC5E4C5AC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -924,15 +924,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" textRotation="135" wrapText="1"/>
     </xf>
@@ -963,7 +954,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2120,18 +2120,18 @@
       <c r="U16" s="25"/>
       <c r="V16" s="22"/>
       <c r="W16" s="25"/>
-      <c r="Z16" s="66" t="s">
+      <c r="Z16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="AA16" s="67"/>
-      <c r="AC16" s="66" t="s">
+      <c r="AA16" s="78"/>
+      <c r="AC16" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AD16" s="67"/>
-      <c r="AF16" s="66" t="s">
+      <c r="AD16" s="78"/>
+      <c r="AF16" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AG16" s="66"/>
+      <c r="AG16" s="77"/>
     </row>
     <row r="17" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C17">
@@ -2809,63 +2809,63 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D34" s="65">
+      <c r="D34" s="75">
         <f>D33+E33</f>
         <v>13.75</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65">
+      <c r="E34" s="75"/>
+      <c r="F34" s="75">
         <f>F33+G33</f>
         <v>13.75</v>
       </c>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65">
+      <c r="G34" s="75"/>
+      <c r="H34" s="75">
         <f>H33+I33</f>
         <v>13.75</v>
       </c>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65">
+      <c r="I34" s="75"/>
+      <c r="J34" s="75">
         <f>J33+K33</f>
         <v>13.75</v>
       </c>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65">
+      <c r="K34" s="75"/>
+      <c r="L34" s="75">
         <f>L33+M33</f>
         <v>13.75</v>
       </c>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65">
+      <c r="M34" s="75"/>
+      <c r="N34" s="75">
         <f>N33+O33</f>
         <v>13.75</v>
       </c>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65">
+      <c r="O34" s="75"/>
+      <c r="P34" s="75">
         <f>P33+Q33</f>
         <v>13.75</v>
       </c>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65">
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75">
         <f>R33+S33</f>
         <v>13.75</v>
       </c>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65">
+      <c r="S34" s="75"/>
+      <c r="T34" s="75">
         <f>T33+U33</f>
         <v>13.75</v>
       </c>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65">
+      <c r="U34" s="75"/>
+      <c r="V34" s="75">
         <f>V33+W33</f>
         <v>13.75</v>
       </c>
-      <c r="W34" s="65"/>
+      <c r="W34" s="75"/>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -3047,7 +3047,7 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="65" t="s">
         <v>44</v>
       </c>
       <c r="E57" s="14"/>
@@ -3113,7 +3113,7 @@
       <c r="AA57" s="15"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C58" s="69"/>
+      <c r="C58" s="66"/>
       <c r="E58">
         <v>3.5</v>
       </c>
@@ -3169,7 +3169,7 @@
       <c r="AA58" s="16"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C59" s="69"/>
+      <c r="C59" s="66"/>
       <c r="E59">
         <v>3.5</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="AA59" s="16"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C60" s="69"/>
+      <c r="C60" s="66"/>
       <c r="E60">
         <v>3.5</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="AA60" s="16"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C61" s="69"/>
+      <c r="C61" s="66"/>
       <c r="E61">
         <v>3.5</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="AA61" s="16"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C62" s="69"/>
+      <c r="C62" s="66"/>
       <c r="E62">
         <v>3.5</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="AA62" s="16"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C63" s="69"/>
+      <c r="C63" s="66"/>
       <c r="E63">
         <v>3.5</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="AA63" s="16"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C64" s="69"/>
+      <c r="C64" s="66"/>
       <c r="E64">
         <v>3.5</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="AA64" s="16"/>
     </row>
     <row r="65" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C65" s="69"/>
+      <c r="C65" s="66"/>
       <c r="E65">
         <v>3.5</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="AA65" s="16"/>
     </row>
     <row r="66" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C66" s="69"/>
+      <c r="C66" s="66"/>
       <c r="E66">
         <v>3.5</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="AA66" s="16"/>
     </row>
     <row r="67" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C67" s="69"/>
+      <c r="C67" s="66"/>
       <c r="E67">
         <v>3.5</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="AA67" s="16"/>
     </row>
     <row r="68" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C68" s="69"/>
+      <c r="C68" s="66"/>
       <c r="E68">
         <v>3.5</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="AA68" s="16"/>
     </row>
     <row r="69" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C69" s="69"/>
+      <c r="C69" s="66"/>
       <c r="E69">
         <v>3.5</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="AA69" s="16"/>
     </row>
     <row r="70" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C70" s="69"/>
+      <c r="C70" s="66"/>
       <c r="E70">
         <v>3.5</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="AA70" s="16"/>
     </row>
     <row r="71" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C71" s="69"/>
+      <c r="C71" s="66"/>
       <c r="E71">
         <v>3.5</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="AA71" s="16"/>
     </row>
     <row r="72" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C72" s="69"/>
+      <c r="C72" s="66"/>
       <c r="E72">
         <v>3.5</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="AA72" s="16"/>
     </row>
     <row r="73" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C73" s="69"/>
+      <c r="C73" s="66"/>
       <c r="E73">
         <v>3.5</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="AA73" s="16"/>
     </row>
     <row r="74" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C74" s="69"/>
+      <c r="C74" s="66"/>
       <c r="E74">
         <v>3.5</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="AA74" s="16"/>
     </row>
     <row r="75" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C75" s="69"/>
+      <c r="C75" s="66"/>
       <c r="E75">
         <v>3.5</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="AA75" s="16"/>
     </row>
     <row r="76" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C76" s="69"/>
+      <c r="C76" s="66"/>
       <c r="E76">
         <v>3.5</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="AA76" s="16"/>
     </row>
     <row r="77" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C77" s="69"/>
+      <c r="C77" s="66"/>
       <c r="E77">
         <v>3.5</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="AA77" s="16"/>
     </row>
     <row r="78" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C78" s="69"/>
+      <c r="C78" s="66"/>
       <c r="E78">
         <v>3.5</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="AA78" s="16"/>
     </row>
     <row r="79" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C79" s="69"/>
+      <c r="C79" s="66"/>
       <c r="E79">
         <v>3.5</v>
       </c>
@@ -3778,7 +3778,7 @@
       <c r="AA79" s="16"/>
     </row>
     <row r="80" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C80" s="69"/>
+      <c r="C80" s="66"/>
       <c r="E80">
         <v>3.5</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="AA80" s="16"/>
     </row>
     <row r="81" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C81" s="69"/>
+      <c r="C81" s="66"/>
       <c r="E81">
         <v>3.5</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="AA81" s="16"/>
     </row>
     <row r="82" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C82" s="69"/>
+      <c r="C82" s="66"/>
       <c r="E82">
         <v>3.5</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="AA82" s="16"/>
     </row>
     <row r="83" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C83" s="69"/>
+      <c r="C83" s="66"/>
       <c r="E83">
         <v>3.5</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="AA83" s="16"/>
     </row>
     <row r="84" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C84" s="69"/>
+      <c r="C84" s="66"/>
       <c r="E84">
         <v>3.5</v>
       </c>
@@ -3923,7 +3923,7 @@
       <c r="AA84" s="16"/>
     </row>
     <row r="85" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C85" s="69"/>
+      <c r="C85" s="66"/>
       <c r="F85" s="50">
         <v>7.75</v>
       </c>
@@ -3984,71 +3984,74 @@
       <c r="AA85" s="16"/>
     </row>
     <row r="86" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C86" s="69"/>
+      <c r="C86" s="66"/>
       <c r="AA86" s="16"/>
     </row>
     <row r="87" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="69"/>
+      <c r="C87" s="66"/>
       <c r="AA87" s="16"/>
     </row>
     <row r="88" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C88" s="70"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="72" t="s">
+      <c r="C88" s="67"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="72"/>
-      <c r="I88" s="72"/>
-      <c r="J88" s="72"/>
-      <c r="K88" s="72"/>
-      <c r="L88" s="72"/>
-      <c r="M88" s="72"/>
-      <c r="N88" s="72"/>
-      <c r="O88" s="72"/>
-      <c r="P88" s="72"/>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="72"/>
-      <c r="S88" s="72"/>
-      <c r="T88" s="72"/>
-      <c r="U88" s="72"/>
-      <c r="V88" s="72"/>
-      <c r="W88" s="72"/>
-      <c r="X88" s="72"/>
-      <c r="Y88" s="72"/>
-      <c r="Z88" s="72"/>
-      <c r="AA88" s="73"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="69"/>
+      <c r="P88" s="69"/>
+      <c r="Q88" s="69"/>
+      <c r="R88" s="69"/>
+      <c r="S88" s="69"/>
+      <c r="T88" s="69"/>
+      <c r="U88" s="69"/>
+      <c r="V88" s="69"/>
+      <c r="W88" s="69"/>
+      <c r="X88" s="69"/>
+      <c r="Y88" s="69"/>
+      <c r="Z88" s="69"/>
+      <c r="AA88" s="70"/>
     </row>
     <row r="89" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="71"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="74"/>
-      <c r="K89" s="74"/>
-      <c r="L89" s="74"/>
-      <c r="M89" s="74"/>
-      <c r="N89" s="74"/>
-      <c r="O89" s="74"/>
-      <c r="P89" s="74"/>
-      <c r="Q89" s="74"/>
-      <c r="R89" s="74"/>
-      <c r="S89" s="74"/>
-      <c r="T89" s="74"/>
-      <c r="U89" s="74"/>
-      <c r="V89" s="74"/>
-      <c r="W89" s="74"/>
-      <c r="X89" s="74"/>
-      <c r="Y89" s="74"/>
-      <c r="Z89" s="74"/>
-      <c r="AA89" s="75"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="71"/>
+      <c r="K89" s="71"/>
+      <c r="L89" s="71"/>
+      <c r="M89" s="71"/>
+      <c r="N89" s="71"/>
+      <c r="O89" s="71"/>
+      <c r="P89" s="71"/>
+      <c r="Q89" s="71"/>
+      <c r="R89" s="71"/>
+      <c r="S89" s="71"/>
+      <c r="T89" s="71"/>
+      <c r="U89" s="71"/>
+      <c r="V89" s="71"/>
+      <c r="W89" s="71"/>
+      <c r="X89" s="71"/>
+      <c r="Y89" s="71"/>
+      <c r="Z89" s="71"/>
+      <c r="AA89" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AC16:AD16"/>
     <mergeCell ref="C57:C89"/>
     <mergeCell ref="E88:AA89"/>
     <mergeCell ref="D88:D89"/>
@@ -4063,9 +4066,6 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AC16:AD16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4077,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DC0786-2087-4373-A34B-80732DEB6451}">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5501,11 +5501,11 @@
       <c r="AB22" s="58"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="39" t="s">
         <v>22</v>
       </c>
@@ -6494,46 +6494,46 @@
         <f t="shared" si="15"/>
         <v>6154.1487406785454</v>
       </c>
-      <c r="L48" s="65">
+      <c r="L48" s="75">
         <f>L47+M47</f>
         <v>13.75</v>
       </c>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65">
+      <c r="M48" s="75"/>
+      <c r="N48" s="75">
         <f>N47+O47</f>
         <v>13.75</v>
       </c>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65">
+      <c r="O48" s="75"/>
+      <c r="P48" s="75">
         <f>P47+Q47</f>
         <v>13.75</v>
       </c>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65">
+      <c r="Q48" s="75"/>
+      <c r="R48" s="75">
         <f>R47+S47</f>
         <v>13.75</v>
       </c>
-      <c r="S48" s="65"/>
-      <c r="T48" s="65">
+      <c r="S48" s="75"/>
+      <c r="T48" s="75">
         <f>T47+U47</f>
         <v>13.75</v>
       </c>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65">
+      <c r="U48" s="75"/>
+      <c r="V48" s="75">
         <f>V47+W47</f>
         <v>13.75</v>
       </c>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65">
+      <c r="W48" s="75"/>
+      <c r="X48" s="75">
         <f>X47+Y47</f>
         <v>13.75</v>
       </c>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="65">
+      <c r="Y48" s="75"/>
+      <c r="Z48" s="75">
         <f>Z47+AA47</f>
         <v>13.75</v>
       </c>
-      <c r="AA48" s="65"/>
+      <c r="AA48" s="75"/>
       <c r="AB48" s="56"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
@@ -6920,8 +6920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0155B7A0-0332-A746-8F63-9FF2761D4719}">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="C1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8344,11 +8344,11 @@
       <c r="AB22" s="58"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="39" t="s">
         <v>22</v>
       </c>
@@ -9337,46 +9337,46 @@
         <f t="shared" si="15"/>
         <v>6154.1487406785454</v>
       </c>
-      <c r="L48" s="65">
+      <c r="L48" s="75">
         <f>L47+M47</f>
         <v>13.75</v>
       </c>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65">
+      <c r="M48" s="75"/>
+      <c r="N48" s="75">
         <f>N47+O47</f>
         <v>13.75</v>
       </c>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65">
+      <c r="O48" s="75"/>
+      <c r="P48" s="75">
         <f>P47+Q47</f>
         <v>13.75</v>
       </c>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65">
+      <c r="Q48" s="75"/>
+      <c r="R48" s="75">
         <f>R47+S47</f>
         <v>13.75</v>
       </c>
-      <c r="S48" s="65"/>
-      <c r="T48" s="65">
+      <c r="S48" s="75"/>
+      <c r="T48" s="75">
         <f>T47+U47</f>
         <v>13.75</v>
       </c>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65">
+      <c r="U48" s="75"/>
+      <c r="V48" s="75">
         <f>V47+W47</f>
         <v>13.75</v>
       </c>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65">
+      <c r="W48" s="75"/>
+      <c r="X48" s="75">
         <f>X47+Y47</f>
         <v>13.75</v>
       </c>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="65">
+      <c r="Y48" s="75"/>
+      <c r="Z48" s="75">
         <f>Z47+AA47</f>
         <v>13.75</v>
       </c>
-      <c r="AA48" s="65"/>
+      <c r="AA48" s="75"/>
       <c r="AB48" s="56"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
